--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3820672.188675489</v>
+        <v>3816659.578661496</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>145.9897563288618</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>95.18998992216552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>213.5723669373762</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>78.29684714664073</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>213.4331505673754</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>72.08802744677264</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>114.0495374903441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>36.89863216765588</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>177.2979137777587</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>54.45803047044483</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>106.4735778903242</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.74007641194018</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>98.99704524587848</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.81060261323905</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>196.7867454260341</v>
       </c>
       <c r="U22" t="n">
-        <v>75.00788511618036</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>105.6356839950563</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>71.58885292963997</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>143.5476780877542</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>129.1078928223857</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>12.76515480631789</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>252.2510378376948</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>56.49518623012952</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>32.44181015857173</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>105.11626575513</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>101.1785556175223</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1215.758282883553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>846.7957659431409</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>488.5300673363904</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>488.5300673363904</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
@@ -4342,13 +4342,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4357,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2492.631839006149</v>
       </c>
       <c r="Y2" t="n">
-        <v>1602.358122947674</v>
+        <v>2492.631839006149</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>360.6423967967187</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>360.6423967967187</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>360.6423967967187</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
         <v>66.5121164321834</v>
@@ -4512,28 +4512,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>615.3268850026056</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>360.6423967967187</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>360.6423967967187</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>360.6423967967187</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>360.6423967967187</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>187.5967395832609</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2793.748364543341</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2793.748364543341</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2793.748364543341</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2420.282606282261</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4637,19 +4637,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>751.9508228902781</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>601.8341834779424</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>453.9210898955492</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>307.0311423976389</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>139.3283057723578</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>409.7032203507503</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>181.713669452733</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1715.892666966215</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,19 +4801,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.097597267229</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2866.097597267229</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2492.631839006149</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2102.492507030337</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>417.6040489720652</v>
+        <v>290.4564109463983</v>
       </c>
       <c r="C10" t="n">
-        <v>417.6040489720652</v>
+        <v>121.5202280184913</v>
       </c>
       <c r="D10" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>417.6040489720652</v>
+        <v>692.8974549201681</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.6040489720652</v>
+        <v>472.104875776638</v>
       </c>
     </row>
     <row r="11">
@@ -5032,10 +5032,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5071,13 +5071,13 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.7774158311365</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032296</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.4258806613763</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>793.7736536168604</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5284,16 +5284,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380886</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101817</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>422.7903292978459</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>422.7903292978459</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>275.9003817999355</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>275.9003817999355</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5712,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,22 +5743,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075826</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5770,10 +5770,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
@@ -5785,16 +5785,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,28 +5831,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>784.581113480496</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>615.6449305525891</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>465.5282911402534</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2248.188593250933</v>
       </c>
       <c r="U22" t="n">
-        <v>1901.695539989114</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.011051783227</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>966.2295783107357</v>
       </c>
     </row>
     <row r="23">
@@ -5983,40 +5983,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6074,22 +6074,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1870.758369404391</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.073881198504</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1326.656711161544</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6241,37 +6241,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913854</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.073881198505</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1326.656711161544</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068011</v>
@@ -6493,19 +6493,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400717</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>365.9405071576786</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>365.9405071576786</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2184.16844972361</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1895.093223067808</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1640.408734861921</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1350.99156482496</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,19 +7192,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7265,13 +7265,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1905.516886736721</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1650.832398530834</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1361.415228493873</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1133.425677595856</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>251.5626541092265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>639.6425904082686</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C46" t="n">
-        <v>470.7064074803617</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X46" t="n">
-        <v>1042.083634382038</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y46" t="n">
-        <v>821.2910552385083</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
   </sheetData>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>39.70888054695399</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>41.29766760034541</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>147.0213775686983</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>20.61870490125418</v>
       </c>
       <c r="U22" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>180.5487903941878</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>180.548790394188</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>142.9753202488368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>36.41624546988311</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>204.6402955209704</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>33.93343655154939</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>92.12028678808284</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>186.142843193523</v>
       </c>
     </row>
     <row r="44">
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>40.30478226780122</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>124.5310997715148</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>639567.325955038</v>
+        <v>639567.3259550381</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>639567.325955038</v>
+        <v>639567.3259550381</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>639567.325955038</v>
+        <v>639567.3259550381</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>639567.325955038</v>
+        <v>639567.3259550381</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>639567.325955038</v>
+        <v>639567.3259550381</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176758</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="I2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>786967.9346977555</v>
       </c>
-      <c r="L2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977561</v>
-      </c>
       <c r="O2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
         <v>786967.9346977557</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
@@ -26438,10 +26438,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186731</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729759.7047753626</v>
+        <v>-729759.7047753627</v>
       </c>
       <c r="C6" t="n">
-        <v>598985.04095223</v>
+        <v>598985.0409522298</v>
       </c>
       <c r="D6" t="n">
-        <v>598985.04095223</v>
+        <v>598985.0409522299</v>
       </c>
       <c r="E6" t="n">
-        <v>345606.2470246262</v>
+        <v>345258.8677702695</v>
       </c>
       <c r="F6" t="n">
-        <v>671018.7088319813</v>
+        <v>670671.3295776243</v>
       </c>
       <c r="G6" t="n">
-        <v>671018.7088319813</v>
+        <v>670671.3295776244</v>
       </c>
       <c r="H6" t="n">
-        <v>671018.7088319815</v>
+        <v>670671.3295776243</v>
       </c>
       <c r="I6" t="n">
-        <v>671018.7088319811</v>
+        <v>670671.3295776243</v>
       </c>
       <c r="J6" t="n">
-        <v>453487.5064347038</v>
+        <v>453140.127180347</v>
       </c>
       <c r="K6" t="n">
-        <v>671018.7088319811</v>
+        <v>670671.3295776246</v>
       </c>
       <c r="L6" t="n">
-        <v>671018.7088319816</v>
+        <v>670671.3295776243</v>
       </c>
       <c r="M6" t="n">
-        <v>585963.6808964693</v>
+        <v>585616.3016421127</v>
       </c>
       <c r="N6" t="n">
-        <v>671018.7088319815</v>
+        <v>670671.3295776241</v>
       </c>
       <c r="O6" t="n">
-        <v>671018.7088319811</v>
+        <v>670671.3295776244</v>
       </c>
       <c r="P6" t="n">
-        <v>671018.7088319813</v>
+        <v>670671.3295776243</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26810,10 +26810,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>236.7440853346187</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>291.0479487338881</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,10 +27593,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>72.63947126823672</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>332.6248785068127</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27672,13 +27672,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>37.5620213915266</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,22 +27776,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>72.66698746754814</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27827,7 +27827,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>104.5351158617507</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>328.3742596033517</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27906,16 +27906,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>150.4543446923762</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>94.15744254776753</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>38.94747013260709</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970241</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,19 +31849,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>250.3097721075164</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,31 +32311,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>539.5330155967683</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32551,31 +32551,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>227.8611086463993</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>200.3460366764701</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460039</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>653.3850396373771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>279.0775374915851</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>432.1946015714836</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>388.5140139297707</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>144.2373595085334</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525797</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,19 +35497,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>116.3353646931862</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>405.558608182438</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36199,31 +36199,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>90.01966967204029</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>57.74979223202568</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243171</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>510.7887951929326</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>136.4812930471406</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>290.0605676494653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>245.9177694853263</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>6.395920534174449</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3816659.578661496</v>
+        <v>3818420.108964283</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>145.9897563288618</v>
+        <v>36.80199454068585</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>78.29684714664073</v>
+        <v>311.5924776653932</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>72.08802744677264</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777587</v>
+        <v>218.8748435506837</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>54.45803047044483</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>131.552212841269</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634808</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710078</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206832</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417117</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695544</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576163</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784693</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819376</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986281</v>
       </c>
       <c r="D13" t="n">
-        <v>108.9065924712584</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>19.91555826188837</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238283</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495696223</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128543</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819376</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986281</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>102.15578456998</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238283</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187928</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695517</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128543</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766843</v>
       </c>
       <c r="D19" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922691</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144413</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695517</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128543</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085811881</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922691</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856569</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T22" t="n">
-        <v>196.7867454260341</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576164</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986281</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699771</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012189</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="26">
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>1.79977260571614</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>78.89395497654149</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>26.1362719570587</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.44181015857173</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>105.11626575513</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>99.98993057842313</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4333,7 +4333,7 @@
         <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4348,7 +4348,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4357,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2492.631839006149</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y2" t="n">
-        <v>2492.631839006149</v>
+        <v>2382.341170533244</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
@@ -4412,10 +4412,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4488,52 +4488,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796265</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="C5" t="n">
-        <v>552.8079389392149</v>
+        <v>1132.251444816072</v>
       </c>
       <c r="D5" t="n">
-        <v>194.5422403324644</v>
+        <v>773.9857462093212</v>
       </c>
       <c r="E5" t="n">
-        <v>194.5422403324644</v>
+        <v>388.1974936110769</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5967395832609</v>
+        <v>381.2519928618735</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.887005818185</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>751.9508228902781</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>601.8341834779424</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>453.9210898955492</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>307.0311423976389</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>139.3283057723578</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,10 +4822,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
@@ -4880,25 +4880,25 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.4564109463983</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C10" t="n">
-        <v>121.5202280184913</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201681</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y10" t="n">
-        <v>472.104875776638</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362696</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398598</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474788</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527392</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803941</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951615</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793927</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>560.7825789706085</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>391.8463960427013</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>241.7297566303653</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5211,40 +5211,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063202</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718106</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2024.390058741047</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1735.314832085244</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1480.630343879357</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1191.213173842396</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>963.2236229443788</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>742.4310438008484</v>
       </c>
     </row>
     <row r="14">
@@ -5254,55 +5254,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797201</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111732</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075831</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014783</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355942</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068016</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694714</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852262</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398601</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,34 +5342,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797201</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273927</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803942</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516152</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793927</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>197.00432422977</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.00432422977</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797201</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797201</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797201</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551881</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961147</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004719</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406475</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168675</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797201</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075834</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332391</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014784</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355943</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068016</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694714</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852262</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398601</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492585</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474791</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946658</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.74961212301</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852895</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591816</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616003</v>
       </c>
     </row>
     <row r="18">
@@ -5579,34 +5579,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797201</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273927</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803942</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516152</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793927</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,64 +5649,64 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908944</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908944</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908944</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908944</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057741</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797201</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797201</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
         <v>1433.701365648819</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5734,55 +5734,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638191991</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111659</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075826</v>
+        <v>852.8523611075758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332383</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014775</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803941</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.155464951615</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793927</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>784.581113480496</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C22" t="n">
-        <v>615.6449305525891</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402534</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578603</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578603</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5916,46 +5916,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2248.188593250933</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>966.2295783107357</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400673</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297669</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297669</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797739</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138377</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="26">
@@ -6220,40 +6220,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,7 +6475,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068011</v>
@@ -6487,10 +6487,10 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,7 +6536,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
         <v>95.58405025273905</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2267.47159895366</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.396372297858</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1723.711884091971</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7028,10 +7028,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,70 +7782,70 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1057.955258982919</v>
+        <v>1057.95525898292</v>
       </c>
       <c r="C46" t="n">
-        <v>889.0190760550122</v>
+        <v>889.0190760550126</v>
       </c>
       <c r="D46" t="n">
-        <v>738.9024366426764</v>
+        <v>738.9024366426769</v>
       </c>
       <c r="E46" t="n">
-        <v>590.9893430602833</v>
+        <v>590.9893430602838</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>444.0993955623734</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>276.9032962772533</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="X46" t="n">
         <v>1460.396302956689</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>39.70888054695399</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229315</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922691</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856573</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823346</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>63.36835372228911</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856572</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194375</v>
       </c>
       <c r="D19" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856569</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405093</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229315</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>20.61870490125418</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229315</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>63.36835372229201</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856575</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.142843193523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>40.30478226780122</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>40.30478226780073</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>639567.3259550381</v>
+        <v>639567.3259550378</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>639567.3259550381</v>
+        <v>639567.325955038</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>639567.325955038</v>
+        <v>639567.3259550378</v>
       </c>
     </row>
     <row r="10">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176759</v>
+      </c>
+      <c r="C2" t="n">
+        <v>800515.7256176755</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176757</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176756</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.7256176758</v>
-      </c>
       <c r="E2" t="n">
+        <v>786967.9346977563</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977554</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977554</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="O2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977555</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073562</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.954454091901425e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551212</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.22759808821138e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186712</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186697</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186699</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186728</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186728</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418673</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26478,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729759.7047753627</v>
+        <v>-729759.7047753623</v>
       </c>
       <c r="C6" t="n">
-        <v>598985.0409522298</v>
+        <v>598985.0409522296</v>
       </c>
       <c r="D6" t="n">
-        <v>598985.0409522299</v>
+        <v>598985.0409522296</v>
       </c>
       <c r="E6" t="n">
-        <v>345258.8677702695</v>
+        <v>345571.5090991901</v>
       </c>
       <c r="F6" t="n">
-        <v>670671.3295776243</v>
+        <v>670983.9709065453</v>
       </c>
       <c r="G6" t="n">
-        <v>670671.3295776244</v>
+        <v>670983.9709065455</v>
       </c>
       <c r="H6" t="n">
-        <v>670671.3295776243</v>
+        <v>670983.9709065456</v>
       </c>
       <c r="I6" t="n">
-        <v>670671.3295776243</v>
+        <v>670983.9709065469</v>
       </c>
       <c r="J6" t="n">
-        <v>453140.127180347</v>
+        <v>453452.7685092681</v>
       </c>
       <c r="K6" t="n">
-        <v>670671.3295776246</v>
+        <v>670983.9709065456</v>
       </c>
       <c r="L6" t="n">
-        <v>670671.3295776243</v>
+        <v>670983.9709065458</v>
       </c>
       <c r="M6" t="n">
-        <v>585616.3016421127</v>
+        <v>585928.9429710335</v>
       </c>
       <c r="N6" t="n">
-        <v>670671.3295776241</v>
+        <v>670983.9709065452</v>
       </c>
       <c r="O6" t="n">
-        <v>670671.3295776244</v>
+        <v>670983.9709065456</v>
       </c>
       <c r="P6" t="n">
-        <v>670671.3295776243</v>
+        <v>670983.9709065458</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26743,19 +26743,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26792,31 +26792,31 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.70828809965</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.70828809965</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.70828809965</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483766</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973569</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973569</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973569</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.7440853346187</v>
+        <v>345.9318471227947</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351647</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>16.8441252232751</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>332.6248785068127</v>
+        <v>99.32924798806027</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>72.66698746754814</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>150.4543446923762</v>
+        <v>108.8774149194512</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>94.15744254776753</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>94.15744254776814</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.659421828669469e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-2.468290079912878e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.195932655828074e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-2.296499531588353e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970241</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348438</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135345</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663287</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162568</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175683</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159433</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460035</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236514</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669227</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078749</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659452</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521103</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473078</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862127</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071791</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.761664355799</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742443</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869281</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106792</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417317</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.9903120353277</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348439</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135346</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067234</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663287</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817582</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.846407116257</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175685</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159436</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460037</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236515</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669228</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292902</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.439951919707875</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659452</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521103</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.139188642259</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473079</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862129</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071792</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643557986</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742444</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189906</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869282</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355181</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588157</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392049</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106792</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920061</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417317</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.9903120353277</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348439</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135346</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067234</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663287</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817582</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.846407116257</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175685</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159436</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460037</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236515</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669228</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292902</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.439951919707875</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659452</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521103</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.139188642259</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473079</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862129</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071792</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643557986</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742444</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189906</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869282</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355181</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588157</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392049</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106792</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920061</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417317</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.9903120353277</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348439</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135346</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067171</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663287</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817582</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.846407116257</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175685</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159436</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460037</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236515</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669228</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292902</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.439951919707875</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659452</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521103</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.139188642259</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473079</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862129</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071792</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643557986</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742444</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189906</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869282</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355181</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588157</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392049</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106792</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920061</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417317</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.9903120353277</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460039</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>357.9244589488886</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525797</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317426</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396424</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462697</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902955</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193525</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243168</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924732</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902407</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600775</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674336</v>
       </c>
       <c r="M12" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641945</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238458</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113546</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317483</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396424</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462697</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902958</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193527</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.488651224317</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.587454168382</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924733</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600775014</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674337</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641945</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238459</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113541</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317483</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396424</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462697</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902958</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193527</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.488651224317</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.587454168382</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924733</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600775014</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674337</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641945</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238459</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113541</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236311149</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396424</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462697</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902958</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193527</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.488651224317</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.587454168382</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924733</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600775014</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674337</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641945</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238459</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113541</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295319</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191312</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243171</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>226.5827468655553</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
